--- a/蓝精灵/AGV HostName MAC IP.xlsx
+++ b/蓝精灵/AGV HostName MAC IP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="226">
   <si>
     <t>RobotName</t>
   </si>
@@ -414,28 +414,13 @@
     <t>AGV4.0  021</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0:c5:89:95:a4:2f</t>
-    </r>
+    <t>a0:c5:89:95:a4:2f</t>
   </si>
   <si>
     <t>hitrobot-hrg4-2c05103</t>
   </si>
   <si>
-    <t>1483757499（群创02）</t>
+    <t>hitrobot-‭30FA302</t>
   </si>
   <si>
     <t>10.63.151.56/alpha</t>
@@ -558,10 +543,7 @@
     <t>hitrobot-hrg4-2c05104</t>
   </si>
   <si>
-    <t>（群创17）</t>
-  </si>
-  <si>
-    <t>P线</t>
+    <t>（群创17）P线</t>
   </si>
   <si>
     <t>10.63.151.64/alpha</t>
@@ -782,13 +764,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -796,7 +771,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,7 +779,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,8 +800,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,6 +826,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,21 +877,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -869,33 +884,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,14 +898,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -962,43 +944,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,139 +1118,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,6 +1166,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1203,31 +1224,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1261,23 +1258,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1289,10 +1271,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1301,16 +1283,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1319,115 +1301,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2140,8 +2122,8 @@
   <sheetPr/>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2551,7 +2533,10 @@
       <c r="D22" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3">
+        <v>1709578238</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>134</v>
       </c>
       <c r="H22" s="18" t="s">
@@ -2652,6 +2637,9 @@
       <c r="H26" s="18" t="s">
         <v>156</v>
       </c>
+      <c r="I26" t="s">
+        <v>120</v>
+      </c>
       <c r="J26" s="24" t="s">
         <v>109</v>
       </c>
@@ -2741,77 +2729,74 @@
       <c r="E30" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="18" t="s">
         <v>176</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="31" ht="15.6" spans="1:11">
       <c r="A31" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="C31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="22" t="s">
+      <c r="E31" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="H31" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="J31" s="24" t="s">
         <v>109</v>
       </c>
       <c r="K31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="1:8">
       <c r="A32" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="C32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="22" t="s">
+      <c r="E32" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="H32" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="33" ht="15.6" spans="1:10">
       <c r="A33" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="C33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="22" t="s">
+      <c r="E33" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="H33" s="18" t="s">
         <v>192</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>193</v>
       </c>
       <c r="J33" s="24" t="s">
         <v>109</v>
@@ -2819,22 +2804,22 @@
     </row>
     <row r="34" ht="15.6" spans="1:10">
       <c r="A34" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="C34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="22" t="s">
+      <c r="E34" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="H34" s="18" t="s">
         <v>197</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>198</v>
       </c>
       <c r="J34" s="24" t="s">
         <v>109</v>
@@ -2842,25 +2827,46 @@
     </row>
     <row r="35" ht="15.6" spans="1:8">
       <c r="A35" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="C35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="22" t="s">
+      <c r="E35" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="H35" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="H35" s="18" t="s">
-        <v>203</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2925,96 +2931,96 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>12</v>
@@ -3022,7 +3028,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -3030,7 +3036,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>12</v>
@@ -3038,7 +3044,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>12</v>
@@ -3046,7 +3052,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -3054,7 +3060,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>12</v>
@@ -3062,7 +3068,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>12</v>

--- a/蓝精灵/AGV HostName MAC IP.xlsx
+++ b/蓝精灵/AGV HostName MAC IP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17615" windowHeight="9155" activeTab="1"/>
+    <workbookView windowWidth="17880" windowHeight="9155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="蓝精灵" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="240">
   <si>
     <t>RobotName</t>
   </si>
@@ -441,9 +441,6 @@
     <t>10.63.151.57/alpha</t>
   </si>
   <si>
-    <t>上位机异常报错，NavCtrlStatus ： -1</t>
-  </si>
-  <si>
     <t>AGV4.0  023</t>
   </si>
   <si>
@@ -489,9 +486,6 @@
     <t>10.63.151.60/alpha</t>
   </si>
   <si>
-    <t>顶升初始化卡在lift_bias，猜测是上下信号线限位传感器反了</t>
-  </si>
-  <si>
     <t>AGV4.0  026</t>
   </si>
   <si>
@@ -564,9 +558,6 @@
     <t>10.63.151.65/alpha</t>
   </si>
   <si>
-    <t>更新后一切正常，突然VNC远程掉线，多次重启找不到AGV IP</t>
-  </si>
-  <si>
     <t>AGV4.0  031</t>
   </si>
   <si>
@@ -630,31 +621,82 @@
     <t>AGF 001</t>
   </si>
   <si>
+    <t>a0:c5:89:50:01:63</t>
+  </si>
+  <si>
+    <t>hitrobot-2c3d701</t>
+  </si>
+  <si>
     <t>1097003912（欧诺1）</t>
   </si>
   <si>
+    <t>eupro-agv</t>
+  </si>
+  <si>
+    <t>hitrobot</t>
+  </si>
+  <si>
+    <t>192.168.8.211</t>
+  </si>
+  <si>
     <t>AGF 002</t>
   </si>
   <si>
+    <t>a0:c5:89:8e:f3:5a</t>
+  </si>
+  <si>
+    <t>hitrobot-2c3d702</t>
+  </si>
+  <si>
     <t>1624907334（欧诺2）</t>
   </si>
   <si>
+    <t>192.168.8.212</t>
+  </si>
+  <si>
     <t>AGF 003</t>
   </si>
   <si>
+    <t>a0:c5:89:47:76:d3</t>
+  </si>
+  <si>
+    <t>hitrobot-2c3d703</t>
+  </si>
+  <si>
     <t>1313423539（欧诺3）</t>
   </si>
   <si>
+    <t>192.168.8.213</t>
+  </si>
+  <si>
     <t>AGF 004</t>
   </si>
   <si>
+    <t>a0:c5:89:48:d1:4f</t>
+  </si>
+  <si>
+    <t>hitrobot-2c3d704</t>
+  </si>
+  <si>
     <t>1095758823（欧诺4）</t>
   </si>
   <si>
+    <t>192.168.8.214</t>
+  </si>
+  <si>
     <t>AGF 005</t>
   </si>
   <si>
+    <t>a0:c5:89:47:b9:4f</t>
+  </si>
+  <si>
+    <t>hitrobot-2c3d705</t>
+  </si>
+  <si>
     <t>1089135627（欧诺5）</t>
+  </si>
+  <si>
+    <t>192.168.8.215</t>
   </si>
   <si>
     <t>AGF 006</t>
@@ -701,12 +743,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,7 +772,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
@@ -742,6 +783,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -763,28 +812,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -797,61 +824,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -869,13 +841,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,7 +850,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,6 +916,37 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -944,187 +993,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,65 +1215,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1255,6 +1250,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1271,10 +1320,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1283,137 +1332,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1432,8 +1481,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1459,7 +1508,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1477,22 +1526,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1915,10 +1967,10 @@
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="26" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1940,7 +1992,7 @@
       <c r="A4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
@@ -2120,10 +2172,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2192,7 +2244,7 @@
       <c r="F2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="18" t="s">
         <v>61</v>
       </c>
@@ -2400,13 +2452,13 @@
       <c r="A17" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>104</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="23" t="s">
         <v>105</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -2418,7 +2470,7 @@
       <c r="I17" t="s">
         <v>108</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="25" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2426,13 +2478,13 @@
       <c r="A18" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>111</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="23" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -2444,7 +2496,7 @@
       <c r="I18" t="s">
         <v>115</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="25" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2452,13 +2504,13 @@
       <c r="A19" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="22" t="s">
         <v>111</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="23" t="s">
         <v>117</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -2470,7 +2522,7 @@
       <c r="I19" t="s">
         <v>120</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="25" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2478,13 +2530,13 @@
       <c r="A20" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>122</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="23" t="s">
         <v>123</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2493,7 +2545,7 @@
       <c r="H20" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="25" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2501,13 +2553,13 @@
       <c r="A21" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>127</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="23" t="s">
         <v>128</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -2516,7 +2568,7 @@
       <c r="H21" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="25" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2524,13 +2576,13 @@
       <c r="A22" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>132</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="23" t="s">
         <v>133</v>
       </c>
       <c r="E22" s="3">
@@ -2542,21 +2594,21 @@
       <c r="H22" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="1:11">
+    <row r="23" ht="15.6" spans="1:10">
       <c r="A23" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="22" t="s">
         <v>137</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="23" t="s">
         <v>138</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -2565,284 +2617,275 @@
       <c r="H23" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="K23" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" ht="15.6" spans="1:10">
       <c r="A24" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="C24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="22" t="s">
+      <c r="E24" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="H24" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="25" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" ht="15.6" spans="1:10">
       <c r="A25" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="C25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="22" t="s">
+      <c r="E25" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="H25" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="J25" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:10">
+      <c r="A26" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="J25" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" ht="15.6" spans="1:11">
-      <c r="A26" s="13" t="s">
+      <c r="B26" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="C26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="22" t="s">
+      <c r="E26" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="H26" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="I26" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="K26" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="27" ht="15.6" spans="1:10">
       <c r="A27" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="E27" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="22" t="s">
+      <c r="H27" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="25" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="1:10">
       <c r="A28" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="H28" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="25" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="1:10">
       <c r="A29" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="E29" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="22" t="s">
+      <c r="H29" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="25" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="1:8">
       <c r="A30" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="E30" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="22" t="s">
+      <c r="H30" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="E30" s="5" t="s">
+    </row>
+    <row r="31" ht="15.6" spans="1:10">
+      <c r="A31" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="B31" s="24" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="31" ht="15.6" spans="1:11">
-      <c r="A31" s="13" t="s">
+      <c r="C31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="E31" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="22" t="s">
+      <c r="H31" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="K31" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="1:8">
       <c r="A32" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="H32" s="18" t="s">
         <v>184</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="33" ht="15.6" spans="1:10">
       <c r="A33" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="H33" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="J33" s="24" t="s">
+      <c r="J33" s="25" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:10">
       <c r="A34" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="H34" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="J34" s="24" t="s">
+      <c r="J34" s="25" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="35" ht="15.6" spans="1:8">
       <c r="A35" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="H35" s="18" t="s">
         <v>199</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2878,8 +2921,8 @@
   <sheetPr/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2929,98 +2972,148 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="E3" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>210</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="13" t="s">
-        <v>207</v>
+        <v>212</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="E4" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>215</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>209</v>
+        <v>217</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="E5" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>220</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="13" t="s">
-        <v>211</v>
+        <v>222</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>212</v>
+        <v>225</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="13" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>12</v>
@@ -3028,7 +3121,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="13" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -3036,7 +3129,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="13" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>12</v>
@@ -3044,7 +3137,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="13" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>12</v>
@@ -3052,7 +3145,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="13" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -3060,7 +3153,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="13" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>12</v>
@@ -3068,7 +3161,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="13" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>12</v>
